--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1534895.063424404</v>
+        <v>1493071.281755397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584663</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8153945.404331095</v>
+        <v>8153945.404331096</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>196.9826481283071</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>18.50521307233312</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>226.2607303200542</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>25.34359263192378</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>94.44200087279974</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1232,10 +1232,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>41.86287499762506</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>23.22084358446357</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>88.58056839365985</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>27.40777827085461</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3565097727587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>16.60419956430028</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>44.80562422809832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -1663,19 +1663,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>211.5184835879371</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>47.97495438228852</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749139</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>115.1165353722835</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>348.8331978489007</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.20428959175573</v>
+        <v>73.6298096400611</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>94.06259899123667</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2061,10 +2061,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.83786409935511</v>
+        <v>268.9755074231833</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>88.2500553097437</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>261.3450431534021</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>91.6867458199809</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>45.56224815806389</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>87.73906239567798</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>115.1165353722835</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>225.8603160877242</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>263.3949424079345</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998134</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2456,7 +2456,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
-        <v>75.40429222956804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.9755074231835</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>357.6149263644302</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>30.2185652717177</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>121.5257924612134</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2651,7 +2651,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>229.2744624660007</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.320794865197</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>15.58696174724987</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.444446855283</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2879,16 +2879,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>112.637689266747</v>
+        <v>87.97716286131265</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>88.90986270619095</v>
       </c>
       <c r="I31" t="n">
-        <v>15.87440209048507</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.653309530864597</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>410.7856512365414</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3204,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.6080685705887</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>132.1330895492286</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.854596704958</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1448796507991</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>187.2448294249384</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>26.47903524663827</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>155.0604460520686</v>
       </c>
       <c r="D38" t="n">
-        <v>7.369312935458709</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>60.11425531312958</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3641,10 +3641,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>188.4551676688977</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.8803768022634</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>278.1953798395901</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>62.72757422197675</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>119.3260324149127</v>
+        <v>47.9381013293179</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>36.48436605885001</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>34.21108651593157</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.80550347573678</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>34.2870929222108</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>36.29588146532114</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4073,10 +4073,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>16.8378640993551</v>
+        <v>88.59832967195069</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.1033079837604</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D3" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,13 +4421,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>514.9548081892932</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>514.9548081892932</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X3" t="n">
-        <v>307.1033079837604</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.1033079837604</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>431.322492160084</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>663.8706929970961</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>435.6470747334852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>435.6470747334852</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>431.322492160084</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>431.322492160084</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>431.322492160084</v>
       </c>
     </row>
     <row r="7">
@@ -4743,22 +4743,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>619.4388494194218</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>619.4388494194218</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>460.2013944139663</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>313.6668364408513</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>174.9360110234668</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>61.56687543104611</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1181.303625882962</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="C11" t="n">
-        <v>1181.303625882962</v>
+        <v>814.4043452067033</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.303625882962</v>
+        <v>456.1386465999528</v>
       </c>
       <c r="E11" t="n">
-        <v>795.5153732847182</v>
+        <v>70.35039400170854</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>70.35039400170854</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5041,19 +5041,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
         <v>1962.442083972113</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>2255.274500472459</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V11" t="n">
-        <v>1924.211613128888</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W11" t="n">
-        <v>1571.442957858774</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X11" t="n">
-        <v>1571.442957858774</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.303625882962</v>
+        <v>1183.366862147115</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5123,22 +5123,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5211,7 +5211,7 @@
         <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228449</v>
       </c>
       <c r="O13" t="n">
         <v>545.2763053496715</v>
@@ -5220,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>566.78431370192</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W13" t="n">
-        <v>566.78431370192</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>566.78431370192</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1399.756948718458</v>
+        <v>846.9039722713087</v>
       </c>
       <c r="C14" t="n">
-        <v>1399.756948718458</v>
+        <v>477.941455330897</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.491250111708</v>
+        <v>477.941455330897</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>92.15320273265274</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>92.15320273265274</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>92.15320273265274</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>92.15320273265274</v>
       </c>
       <c r="I14" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J14" t="n">
         <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5299,31 +5299,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V14" t="n">
-        <v>1399.756948718458</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W14" t="n">
-        <v>1399.756948718458</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="X14" t="n">
-        <v>1399.756948718458</v>
+        <v>1237.04330424712</v>
       </c>
       <c r="Y14" t="n">
-        <v>1399.756948718458</v>
+        <v>846.9039722713087</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739893</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739893</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>121.6684232076321</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>491.219638316116</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5375,34 +5375,34 @@
         <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q15" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R15" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="C16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="D16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="F16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J16" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702981</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>391.0727469424311</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7305522826212</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7305522826212</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="V16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164434</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>785.0400145438286</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>785.0400145438286</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>399.2517619455844</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I17" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
@@ -5536,31 +5536,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q17" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R17" t="n">
-        <v>2299.088923504685</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V17" t="n">
-        <v>2115.893810642661</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W17" t="n">
-        <v>2115.893810642661</v>
+        <v>1917.607621721132</v>
       </c>
       <c r="X17" t="n">
-        <v>2115.893810642661</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>447.6797356739893</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I18" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K18" t="n">
-        <v>273.1268607498447</v>
+        <v>273.1268607498449</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M18" t="n">
         <v>1125.906134925503</v>
@@ -5612,34 +5612,34 @@
         <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q18" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.4672162670298</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>318.5874281822336</v>
       </c>
       <c r="V19" t="n">
-        <v>63.90293997634646</v>
+        <v>318.5874281822336</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2050.393517622824</v>
+        <v>900.847885737694</v>
       </c>
       <c r="C20" t="n">
-        <v>1681.431000682412</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D20" t="n">
-        <v>1592.28953067257</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E20" t="n">
-        <v>1206.501278074326</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F20" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5773,31 +5773,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q20" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V20" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W20" t="n">
-        <v>2050.393517622824</v>
+        <v>1677.587057777627</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.393517622824</v>
+        <v>1677.587057777627</v>
       </c>
       <c r="Y20" t="n">
-        <v>2050.393517622824</v>
+        <v>1287.447725801816</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404612</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593343</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>359.189064798083</v>
       </c>
       <c r="E21" t="n">
-        <v>139.5078710072816</v>
+        <v>199.9516097926275</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>199.9516097926275</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>199.9516097926275</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>92.91746932857757</v>
       </c>
       <c r="I21" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J21" t="n">
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922998</v>
       </c>
       <c r="L21" t="n">
         <v>705.6153558007836</v>
@@ -5843,40 +5843,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
         <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q21" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982772</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036803</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.79310469096</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459218</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731016</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525483</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605293</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>426.1201086060705</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="C22" t="n">
-        <v>426.1201086060705</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="D22" t="n">
-        <v>276.0034691937348</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="E22" t="n">
-        <v>276.0034691937348</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="F22" t="n">
-        <v>276.0034691937348</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="G22" t="n">
-        <v>276.0034691937348</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702981</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362076</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>444.755458122845</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496717</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363105</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424311</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005166</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1016.293597920344</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="C23" t="n">
-        <v>1016.293597920344</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="D23" t="n">
-        <v>1016.293597920344</v>
+        <v>1655.421236131896</v>
       </c>
       <c r="E23" t="n">
-        <v>630.5053453221001</v>
+        <v>1269.632983533651</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5053453221001</v>
+        <v>858.6470787440437</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>440.3753112269285</v>
       </c>
       <c r="H23" t="n">
         <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6010,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
-        <v>1282.349095302096</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W23" t="n">
-        <v>1016.293597920344</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X23" t="n">
-        <v>1016.293597920344</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="Y23" t="n">
-        <v>1016.293597920344</v>
+        <v>2013.686934738646</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551158</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739888</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127376</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072821</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I24" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498452</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583291</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810004</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Q24" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T24" t="n">
         <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V24" t="n">
-        <v>1619.183414158576</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1364.946057430374</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X24" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751839</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U25" t="n">
-        <v>2055.568676828139</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V25" t="n">
-        <v>2055.568676828139</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164434</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>432.6832490398886</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="C26" t="n">
-        <v>432.6832490398886</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D26" t="n">
-        <v>432.6832490398886</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1582.888179340902</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1582.888179340902</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1209.422421079822</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y26" t="n">
-        <v>819.2830891040103</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>625.6945070595847</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C27" t="n">
-        <v>451.2414777784577</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D27" t="n">
-        <v>451.2414777784577</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E27" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6341,16 +6341,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1463.758999778341</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1209.521643050139</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1001.670142844607</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>793.9098440796527</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>171.4614559014393</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>125.1856633885088</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>125.1856633885088</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X28" t="n">
-        <v>125.1856633885088</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.1606950483948</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C29" t="n">
-        <v>405.1606950483948</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F29" t="n">
         <v>46.89499644164432</v>
@@ -6460,19 +6460,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915531</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2329.005416276913</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>2329.005416276913</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302097</v>
+        <v>2329.005416276913</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319828</v>
+        <v>1976.236761006799</v>
       </c>
       <c r="X29" t="n">
-        <v>556.114681770903</v>
+        <v>1602.771002745719</v>
       </c>
       <c r="Y29" t="n">
-        <v>405.1606950483948</v>
+        <v>1212.631670769908</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>527.4044018181502</v>
       </c>
       <c r="E30" t="n">
-        <v>184.9698823089523</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6554,40 +6554,40 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.7790225382929</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="C31" t="n">
-        <v>210.842839610386</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="D31" t="n">
-        <v>210.842839610386</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="E31" t="n">
-        <v>62.92974602799288</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="F31" t="n">
-        <v>62.92974602799288</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="G31" t="n">
-        <v>62.92974602799288</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="H31" t="n">
-        <v>62.92974602799288</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6660,13 +6660,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X31" t="n">
-        <v>379.7790225382929</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.7790225382929</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1215.241994772169</v>
+        <v>1177.966859614879</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.241994772169</v>
+        <v>1177.966859614879</v>
       </c>
       <c r="D32" t="n">
-        <v>1215.241994772169</v>
+        <v>1177.966859614879</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.501278074326</v>
+        <v>792.1786070166347</v>
       </c>
       <c r="F32" t="n">
-        <v>795.5153732847182</v>
+        <v>792.1786070166347</v>
       </c>
       <c r="G32" t="n">
         <v>377.243605767603</v>
@@ -6700,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6727,25 +6727,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812102</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.981166812102</v>
+        <v>1568.106191590691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1601.84183483629</v>
+        <v>1177.966859614879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
         <v>1887.88481026779</v>
@@ -6806,25 +6806,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.857513382056</v>
+        <v>1307.485530376898</v>
       </c>
       <c r="C35" t="n">
-        <v>46.89499644164432</v>
+        <v>1307.485530376898</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>1307.485530376898</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>921.6972777786536</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>510.7113729890461</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>510.7113729890461</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>180.3627636630874</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6964,25 +6964,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319823</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="X35" t="n">
-        <v>556.1146817709025</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="Y35" t="n">
-        <v>415.857513382056</v>
+        <v>1307.485530376898</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7019,22 +7019,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7043,25 +7043,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1994.38007564445</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1759.227967412707</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1504.990610684506</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1297.139110478973</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>73.64149669077389</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64149669077389</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7119,28 +7119,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>453.4106385108907</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V37" t="n">
-        <v>453.4106385108907</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W37" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>232.6180593673606</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>423.3012638219133</v>
+        <v>621.7934771426671</v>
       </c>
       <c r="C38" t="n">
-        <v>54.33874688150161</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7180,10 +7180,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.135517417229</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W38" t="n">
-        <v>1183.366862147115</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X38" t="n">
-        <v>809.9011038860351</v>
+        <v>1398.532649182601</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.9011038860351</v>
+        <v>1008.393317206789</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.1634746939509</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C39" t="n">
-        <v>746.7104454128239</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D39" t="n">
-        <v>597.7760357515726</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E39" t="n">
-        <v>438.5385807461172</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F39" t="n">
-        <v>292.0040227730022</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G39" t="n">
         <v>153.9291369056942</v>
@@ -7265,7 +7265,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
         <v>1887.88481026779</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.028352068954</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.485654122985</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V39" t="n">
-        <v>1695.349365905614</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W39" t="n">
-        <v>1504.990610684506</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X39" t="n">
-        <v>1297.139110478973</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.378811714019</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>184.1479023025165</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>184.1479023025165</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
         <v>46.89499644164432</v>
@@ -7365,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V40" t="n">
-        <v>353.0840852304234</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W40" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>1493.637104951312</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>738.8863354126561</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>327.9004306230485</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7411,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7438,25 +7438,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V41" t="n">
-        <v>1550.050796562862</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.050796562862</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.050796562862</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y41" t="n">
-        <v>1159.911464587051</v>
+        <v>1880.236945015434</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C42" t="n">
-        <v>622.1327649551154</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D42" t="n">
-        <v>473.1983552938641</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E42" t="n">
-        <v>313.9609002884086</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F42" t="n">
-        <v>167.4263423152936</v>
+        <v>202.3514614807628</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
         <v>46.89499644164432</v>
@@ -7490,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="C43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="D43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="E43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="F43" t="n">
-        <v>2307.896927073277</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="G43" t="n">
-        <v>2138.758986819787</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H43" t="n">
-        <v>1979.7824241432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="Y43" t="n">
-        <v>2344.749822082216</v>
+        <v>356.5160938960354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1273.65434558289</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C44" t="n">
-        <v>904.6918286424786</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>546.4261300357282</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>546.4261300357282</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>546.4261300357282</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V44" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W44" t="n">
-        <v>2050.393517622824</v>
+        <v>2310.116394888064</v>
       </c>
       <c r="X44" t="n">
-        <v>2050.393517622824</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y44" t="n">
-        <v>1660.254185647012</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7754,25 +7754,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="46">
@@ -7833,10 +7833,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T46" t="n">
-        <v>590.7606299016081</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="U46" t="n">
         <v>301.5794846475312</v>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579834</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082739</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285211997</v>
       </c>
       <c r="K18" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579838</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>57.08896698613908</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.78104355096</v>
       </c>
       <c r="O21" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579841</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>237.9065809724248</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O30" t="n">
-        <v>237.9065809724248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P42" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>390.8682062574804</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>162.6679895003214</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.8393013974914</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.090051078196922</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23475,13 +23475,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.8795713216088</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006108</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>116.2337748821978</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>109.6701260731124</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>46.59991698252628</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620179</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704629</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>137.0211079515445</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>58.04284789281076</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.42552004830539</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>53.38246657340208</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -23831,7 +23831,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.8687916362018</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.6851342372359</v>
+        <v>17.54749091340773</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>266.4329863109393</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006108</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>87.89592556401089</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>53.38246657340298</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>21.47633989765035</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>69.64773465414289</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.96179025660804</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620179</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704629</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>101.1848071449749</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>85.84602630947848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340254</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>17.5474909134075</v>
+        <v>171.4064629643077</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>25.1189152990504</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>297.5336931984172</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>45.00739118865394</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>3.52612468342457</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>44.12576598575862</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24654,22 +24654,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.0768930746989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>202.1959700274876</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.7934918007705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>45.00739118865395</v>
+        <v>69.66791759408829</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>68.47693434362992</v>
       </c>
       <c r="I31" t="n">
-        <v>123.2039235384065</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>373.2770605413972</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.303398605402606</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25092,13 +25092,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77872847923217</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>31.55210600047855</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.3833419510956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>6.924332742584738</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>38.65383027744593</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25329,13 +25329,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>28.38975638956354</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
@@ -25368,19 +25368,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>210.212445718939</v>
       </c>
       <c r="D38" t="n">
-        <v>347.3137286852242</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>99.50696423532062</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>63.23981549202188</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>10.55358584430576</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,13 +25605,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>135.8936700023538</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>265.0246842481582</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>17.36810459372212</v>
+        <v>88.75603567931697</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>108.9366819640812</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>191.4083511075638</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.2835463662072</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>314.9538757952022</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>130.2373021845462</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.7815735241403</v>
+        <v>137.0211079515447</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625402.2019511035</v>
+        <v>625402.2019511034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625402.2019511032</v>
+        <v>625402.2019511034</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625402.2019511032</v>
+        <v>625402.2019511034</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625402.2019511034</v>
+        <v>625402.2019511032</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625402.2019511034</v>
+        <v>625402.2019511033</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625402.2019511034</v>
+        <v>625402.2019511032</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625402.2019511035</v>
+        <v>625402.2019511033</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>343688.9296934801</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="F2" t="n">
+        <v>343688.9296934799</v>
+      </c>
+      <c r="G2" t="n">
         <v>343688.9296934798</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343688.9296934799</v>
       </c>
       <c r="H2" t="n">
         <v>343688.92969348</v>
@@ -26343,19 +26343,19 @@
         <v>343688.92969348</v>
       </c>
       <c r="L2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934801</v>
       </c>
       <c r="M2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.9296934803</v>
       </c>
       <c r="N2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="O2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="P2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789528</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910622</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>44219.9328555508</v>
       </c>
       <c r="H4" t="n">
-        <v>44219.9328555508</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="I4" t="n">
         <v>44219.9328555508</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544656</v>
       </c>
       <c r="F5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="G5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="H5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="I5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="J5" t="n">
         <v>42221.72212544655</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83663.49712611933</v>
+        <v>83663.49712611921</v>
       </c>
       <c r="C6" t="n">
-        <v>164432.928657667</v>
+        <v>164432.9286576668</v>
       </c>
       <c r="D6" t="n">
         <v>164432.928657667</v>
       </c>
       <c r="E6" t="n">
-        <v>-88365.06806646995</v>
+        <v>-95672.30732486662</v>
       </c>
       <c r="F6" t="n">
-        <v>257247.2747124825</v>
+        <v>249940.0354540862</v>
       </c>
       <c r="G6" t="n">
-        <v>257247.2747124826</v>
+        <v>249940.0354540862</v>
       </c>
       <c r="H6" t="n">
-        <v>257247.2747124826</v>
+        <v>249940.0354540863</v>
       </c>
       <c r="I6" t="n">
-        <v>257247.2747124825</v>
+        <v>249940.0354540862</v>
       </c>
       <c r="J6" t="n">
-        <v>194187.3321133764</v>
+        <v>186880.0928549802</v>
       </c>
       <c r="K6" t="n">
-        <v>257247.2747124827</v>
+        <v>249940.0354540863</v>
       </c>
       <c r="L6" t="n">
-        <v>257247.2747124827</v>
+        <v>249940.0354540864</v>
       </c>
       <c r="M6" t="n">
-        <v>171228.7408924064</v>
+        <v>163921.5016340105</v>
       </c>
       <c r="N6" t="n">
-        <v>257247.2747124826</v>
+        <v>249940.0354540864</v>
       </c>
       <c r="O6" t="n">
-        <v>257247.2747124826</v>
+        <v>249940.0354540861</v>
       </c>
       <c r="P6" t="n">
-        <v>257247.2747124826</v>
+        <v>249940.0354540862</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062788</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
+        <v>301.9048087062788</v>
+      </c>
+      <c r="I3" t="n">
         <v>301.9048087062787</v>
-      </c>
-      <c r="I3" t="n">
-        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
         <v>301.9048087062786</v>
@@ -26801,16 +26801,16 @@
         <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="H4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="I4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="J4" t="n">
         <v>586.1874555205541</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>214.2953740770921</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>25.43425284086544</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27706,7 +27706,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8211360628978</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>157.2529822881199</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,10 +27909,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27952,10 +27952,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>47.53375785379002</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31773,28 +31773,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K12" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L12" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I13" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.213687673191069</v>
+        <v>1.21368767319107</v>
       </c>
       <c r="H14" t="n">
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069876</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586787</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870999</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452116</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.2393083010886</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284153</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.31291778939391</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528554</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757695</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087038</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570084</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454673</v>
       </c>
       <c r="K15" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L15" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988245</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515174</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051117</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031256</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618703</v>
       </c>
       <c r="I16" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354495</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823743</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.3400756806945</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545564</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598728</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292346</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.5876261146481</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031741</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786082</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069875</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32247,28 +32247,28 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108858</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393909</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528553</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757694</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087037</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454671</v>
       </c>
       <c r="K18" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L18" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988243</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515173</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051116</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618702</v>
       </c>
       <c r="I19" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354493</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823742</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069448</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545562</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598727</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292345</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464809</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031739</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191069</v>
+        <v>1.21368767319107</v>
       </c>
       <c r="H20" t="n">
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069876</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K20" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586787</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870999</v>
       </c>
       <c r="M20" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452116</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466657</v>
       </c>
       <c r="O20" t="n">
-        <v>204.4927189463719</v>
+        <v>204.492718946372</v>
       </c>
       <c r="P20" t="n">
         <v>174.5298045144674</v>
@@ -32496,16 +32496,16 @@
         <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.2393083010886</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284153</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.31291778939391</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528554</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757695</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087038</v>
       </c>
       <c r="I21" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570084</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454673</v>
       </c>
       <c r="K21" t="n">
-        <v>104.8606541711232</v>
+        <v>104.8606541711233</v>
       </c>
       <c r="L21" t="n">
         <v>140.9980901415503</v>
@@ -32563,28 +32563,28 @@
         <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025814</v>
       </c>
       <c r="O21" t="n">
         <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0031279382449</v>
+        <v>124.003127938245</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988245</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515174</v>
       </c>
       <c r="S21" t="n">
         <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
-        <v>2.617457728311981</v>
+        <v>2.617457728311982</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051117</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031256</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618703</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836673</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047098</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354495</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823743</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.3400756806945</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545564</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598728</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292346</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.5876261146481</v>
       </c>
       <c r="R22" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100417</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031741</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.326151804786082</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471598</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32727,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32797,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547476</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L13" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788812</v>
       </c>
       <c r="K14" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848629</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107714</v>
       </c>
       <c r="N14" t="n">
-        <v>424.4951865620588</v>
+        <v>424.495186562059</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306806</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503813</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729035</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q15" t="n">
         <v>152.98832074971</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.9820402276621</v>
       </c>
       <c r="L16" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5362093200269</v>
+        <v>101.536209320027</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781695</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788811</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620589</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306805</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547481</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35977,10 +35977,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766208</v>
       </c>
       <c r="L19" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781694</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788812</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848629</v>
       </c>
       <c r="L20" t="n">
         <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107714</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620588</v>
+        <v>424.495186562059</v>
       </c>
       <c r="O20" t="n">
         <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306806</v>
       </c>
       <c r="Q20" t="n">
         <v>121.0739155037674</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828887</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093429</v>
@@ -36208,16 +36208,16 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729035</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702081</v>
       </c>
       <c r="O21" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>308.4914891638519</v>
       </c>
       <c r="Q21" t="n">
         <v>152.98832074971</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.9820402276621</v>
       </c>
       <c r="L22" t="n">
-        <v>108.5302095485535</v>
+        <v>108.5302095485536</v>
       </c>
       <c r="M22" t="n">
         <v>124.9239526425351</v>
@@ -36293,10 +36293,10 @@
         <v>127.4430518046842</v>
       </c>
       <c r="O22" t="n">
-        <v>101.5362093200269</v>
+        <v>101.536209320027</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781695</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36372,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547483</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36451,13 +36451,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36533,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36685,16 +36685,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>249.8143946212776</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O30" t="n">
-        <v>249.8143946212776</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37162,7 +37162,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
@@ -37387,10 +37387,10 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37800,7 +37800,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37873,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P42" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
